--- a/要件定義書.xlsx
+++ b/要件定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ytaka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rivap\Documents\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7650" windowHeight="8730" tabRatio="888" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="6120" tabRatio="888"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>作成者</t>
   </si>
@@ -320,6 +320,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角南</t>
+    <rPh sb="0" eb="2">
+      <t>スナミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -327,7 +334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -874,6 +881,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,6 +908,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,30 +944,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,12 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1340,7 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -1392,18 +1401,18 @@
     </row>
     <row r="6" spans="1:16" ht="69.75" customHeight="1">
       <c r="C6" s="16"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1422,47 +1431,49 @@
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="M16" s="22"/>
@@ -1522,52 +1533,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
       <c r="P1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
       <c r="P2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="50"/>
@@ -1593,427 +1604,427 @@
       <c r="A4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="53">
         <v>2</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="53">
         <v>3</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="53">
         <v>4</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="53">
         <v>5</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="53">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="53">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="53">
         <v>8</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="53">
         <v>9</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="53">
         <v>10</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="53">
         <v>11</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="53">
         <v>12</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="53">
         <v>13</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="53">
         <v>14</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="53">
         <v>15</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="53">
         <v>16</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="53">
         <v>17</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="53">
         <v>18</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1">
       <c r="A23" s="54"/>
@@ -2060,6 +2071,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:O2"/>
     <mergeCell ref="Q1:R1"/>
@@ -2068,78 +2151,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2168,23 +2179,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,19 +2206,19 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2240,14 +2251,14 @@
       <c r="A4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="37" t="s">
         <v>16</v>
       </c>
@@ -2255,14 +2266,14 @@
       <c r="J4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="37" t="s">
         <v>16</v>
       </c>
@@ -2779,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Q23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2795,25 +2806,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
       <c r="N1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2824,23 +2835,23 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="77">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2851,23 +2862,23 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="22.5" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:17" ht="22.5" customHeight="1">
       <c r="A4" s="38"/>

--- a/要件定義書.xlsx
+++ b/要件定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rivap\Documents\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi-19\Documents\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,7 +717,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,6 +908,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,30 +944,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,6 +993,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:K10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
@@ -1450,7 +1453,9 @@
         <v>5</v>
       </c>
       <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
+      <c r="H11" s="93">
+        <v>45210</v>
+      </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="63"/>
@@ -1533,52 +1538,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
       <c r="P1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="50"/>
@@ -1604,31 +1609,31 @@
       <c r="A4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="52">
@@ -1656,375 +1661,375 @@
       <c r="A6" s="53">
         <v>2</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="53">
         <v>3</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="53">
         <v>4</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="53">
         <v>5</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="53">
         <v>6</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="53">
         <v>7</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="53">
         <v>8</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="53">
         <v>9</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="53">
         <v>10</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="53">
         <v>11</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="53">
         <v>12</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="53">
         <v>13</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="53">
         <v>14</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="53">
         <v>15</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="53">
         <v>16</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="53">
         <v>17</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="53">
         <v>18</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1">
       <c r="A23" s="54"/>
@@ -2071,6 +2076,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -2079,78 +2156,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2179,10 +2184,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="76" t="s">
         <v>11</v>
       </c>
@@ -2206,8 +2211,8 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="79"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
@@ -2806,10 +2811,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="85" t="s">
         <v>27</v>
       </c>
@@ -2835,8 +2840,8 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="79">
         <v>1.1000000000000001</v>
       </c>

--- a/要件定義書.xlsx
+++ b/要件定義書.xlsx
@@ -5,21 +5,22 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi-19\Documents\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rivap\Documents\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="6120" tabRatio="888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="6120" tabRatio="888" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="169" r:id="rId2"/>
     <sheet name="目次" sheetId="163" r:id="rId3"/>
-    <sheet name="内容" sheetId="166" r:id="rId4"/>
+    <sheet name="タイムスケジュール" sheetId="170" r:id="rId4"/>
+    <sheet name="内容" sheetId="166" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
-    <definedName name="範囲１" localSheetId="3">#REF!</definedName>
+    <definedName name="範囲１" localSheetId="4">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
@@ -66,13 +67,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>株式会社 ○○○○</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>最終更新日</t>
     <rPh sb="0" eb="2">
       <t>サイシュウ</t>
@@ -93,11 +87,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>××××システム
-要件定義書</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義書</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -324,9 +313,30 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>角南</t>
-    <rPh sb="0" eb="2">
+    <t>カロリーマート
+要件定義書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9班</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>林、角南、難波、峠</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>スナミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナンバ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウゲ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -899,13 +909,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,30 +957,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,9 +1006,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,7 +1360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11:K11"/>
     </sheetView>
   </sheetViews>
@@ -1405,7 +1415,7 @@
     <row r="6" spans="1:16" ht="69.75" customHeight="1">
       <c r="C6" s="16"/>
       <c r="D6" s="57" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="58"/>
@@ -1438,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="60"/>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="64" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="62"/>
@@ -1453,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="60"/>
-      <c r="H11" s="93">
+      <c r="H11" s="61">
         <v>45210</v>
       </c>
       <c r="I11" s="62"/>
@@ -1462,20 +1472,20 @@
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="F12" s="59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="F13" s="59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
+      <c r="H13" s="64"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="63"/>
@@ -1497,7 +1507,7 @@
     </row>
     <row r="20" spans="7:15" ht="22.5" customHeight="1">
       <c r="G20" s="25" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -1538,52 +1548,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
+      <c r="A1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
       <c r="P1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="50"/>
@@ -1607,429 +1617,429 @@
     </row>
     <row r="4" spans="1:18" ht="22.5" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="53">
         <v>2</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="53">
         <v>3</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="53">
         <v>4</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="53">
         <v>5</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="53">
         <v>6</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="53">
         <v>7</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="53">
         <v>8</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="53">
         <v>9</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="53">
         <v>10</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="53">
         <v>11</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="53">
         <v>12</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="53">
         <v>13</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="53">
         <v>14</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="53">
         <v>15</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="53">
         <v>16</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="53">
         <v>17</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="53">
         <v>18</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1">
       <c r="A23" s="54"/>
@@ -2076,6 +2086,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:O2"/>
     <mergeCell ref="Q1:R1"/>
@@ -2084,78 +2166,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2184,23 +2194,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
+      <c r="A1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,19 +2221,19 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2254,33 +2264,33 @@
     </row>
     <row r="4" spans="1:17" ht="22.5" customHeight="1">
       <c r="A4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
       <c r="Q4" s="37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1">
@@ -2304,10 +2314,10 @@
     </row>
     <row r="6" spans="1:17" ht="22.5" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -2319,10 +2329,10 @@
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
@@ -2338,7 +2348,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2353,7 +2363,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -2369,7 +2379,7 @@
         <v>1.2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -2384,7 +2394,7 @@
         <v>4.2</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
@@ -2400,7 +2410,7 @@
         <v>1.3</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -2415,7 +2425,7 @@
         <v>4.3</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -2431,7 +2441,7 @@
         <v>1.4</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2446,7 +2456,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -2462,7 +2472,7 @@
         <v>1.5</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2477,7 +2487,7 @@
         <v>4.5</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
@@ -2490,10 +2500,10 @@
     </row>
     <row r="12" spans="1:17" ht="27" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -2518,7 +2528,7 @@
         <v>2.1</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -2543,7 +2553,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -2568,7 +2578,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -2593,7 +2603,7 @@
         <v>2.4</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -2618,7 +2628,7 @@
         <v>2.5</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -2640,10 +2650,10 @@
     </row>
     <row r="18" spans="1:17" ht="27" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -2668,7 +2678,7 @@
         <v>3.1</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2693,7 +2703,7 @@
         <v>3.2</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -2718,7 +2728,7 @@
         <v>3.3</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -2792,6 +2802,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
@@ -2811,25 +2836,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="A1" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
       <c r="N1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2840,23 +2865,23 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="79">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="80">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
